--- a/Documents/ACC Reports.xlsx
+++ b/Documents/ACC Reports.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hashan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects Personal\OneDrive\TFMERP\TFMERP\trunk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4FB2E6913DFF7AA3067F1E5C16300608643BC04C" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10130" yWindow="-110" windowWidth="19880" windowHeight="7730" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10125" yWindow="-105" windowWidth="19875" windowHeight="7725" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Schedule- VAT" sheetId="3" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="AR9" sheetId="9" r:id="rId7"/>
     <sheet name="Tax form " sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2560,108 +2561,6 @@
     <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2672,9 +2571,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2694,9 +2590,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2709,9 +2602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2723,35 +2613,17 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2767,16 +2639,134 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,26 +2776,37 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3154,15 +3155,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="31.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="11" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3192,21 +3193,21 @@
     <row r="4" spans="1:25" s="5" customFormat="1"/>
     <row r="5" spans="1:25" s="5" customFormat="1"/>
     <row r="6" spans="1:25" s="5" customFormat="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="218"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
+      <c r="G6" s="218"/>
+      <c r="H6" s="218"/>
+      <c r="I6" s="218"/>
+      <c r="J6" s="218"/>
+      <c r="K6" s="218"/>
+      <c r="L6" s="218"/>
+      <c r="M6" s="218"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
@@ -3244,7 +3245,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="29">
+    <row r="9" spans="1:25" ht="30">
       <c r="A9" s="99" t="s">
         <v>169</v>
       </c>
@@ -4103,34 +4104,34 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="37.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:254" s="24" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
@@ -4642,7 +4643,7 @@
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:254" s="26" customFormat="1" ht="24.5" thickBot="1">
+    <row r="4" spans="1:254" s="26" customFormat="1" ht="24.75" thickBot="1">
       <c r="A4" s="64" t="s">
         <v>77</v>
       </c>
@@ -4918,7 +4919,7 @@
       <c r="IQ4" s="25"/>
       <c r="IR4" s="25"/>
     </row>
-    <row r="5" spans="1:254" s="33" customFormat="1" ht="13">
+    <row r="5" spans="1:254" s="33" customFormat="1" ht="12.75">
       <c r="A5" s="46"/>
       <c r="B5" s="27">
         <v>42734</v>
@@ -4954,7 +4955,7 @@
       </c>
       <c r="L5" s="32"/>
     </row>
-    <row r="6" spans="1:254" s="33" customFormat="1" ht="13">
+    <row r="6" spans="1:254" s="33" customFormat="1" ht="12.75">
       <c r="A6" s="47"/>
       <c r="B6" s="34">
         <v>42738</v>
@@ -4990,7 +4991,7 @@
       </c>
       <c r="L6" s="32"/>
     </row>
-    <row r="7" spans="1:254" s="33" customFormat="1" ht="13">
+    <row r="7" spans="1:254" s="33" customFormat="1" ht="12.75">
       <c r="A7" s="47"/>
       <c r="B7" s="34">
         <v>42739</v>
@@ -5026,7 +5027,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="1:254" s="33" customFormat="1" ht="13">
+    <row r="8" spans="1:254" s="33" customFormat="1" ht="12.75">
       <c r="A8" s="47"/>
       <c r="B8" s="39">
         <v>42739</v>
@@ -5062,27 +5063,27 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="1:254" ht="15" thickBot="1">
+    <row r="9" spans="1:254" ht="15.75" thickBot="1">
       <c r="H9" s="69">
         <f>SUM(H5:H8)</f>
         <v>1701376.7</v>
       </c>
     </row>
-    <row r="10" spans="1:254" ht="15" thickTop="1"/>
+    <row r="10" spans="1:254" ht="15.75" thickTop="1"/>
     <row r="12" spans="1:254" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
-      <c r="G12" s="184"/>
-      <c r="H12" s="184"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="184"/>
-      <c r="K12" s="184"/>
+      <c r="B12" s="220"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
       <c r="L12" s="50"/>
       <c r="M12" s="50"/>
       <c r="N12" s="50"/>
@@ -6066,13 +6067,13 @@
         <v>42746</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="H22" s="70">
         <f>SUM(H16:H21)</f>
         <v>847150</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickTop="1"/>
+    <row r="23" spans="1:11" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
@@ -6091,19 +6092,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.81640625" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="11" max="11" width="3.26953125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26">
+    <row r="1" spans="1:18" ht="26.25">
       <c r="A1" s="82" t="s">
         <v>120</v>
       </c>
@@ -6133,7 +6134,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1"/>
-    <row r="6" spans="1:18" ht="23.5">
+    <row r="6" spans="1:18" ht="23.25">
       <c r="E6" s="83" t="s">
         <v>184</v>
       </c>
@@ -6199,12 +6200,12 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86"/>
-      <c r="H12" s="192" t="s">
+      <c r="H12" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="225"/>
       <c r="M12" s="77"/>
       <c r="N12" s="77"/>
       <c r="O12" s="77"/>
@@ -6309,13 +6310,13 @@
       <c r="A18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="186" t="s">
+      <c r="B18" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
       <c r="G18" s="3" t="s">
         <v>155</v>
       </c>
@@ -6325,22 +6326,22 @@
       <c r="I18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="186" t="s">
+      <c r="J18" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="186"/>
+      <c r="K18" s="226"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="221" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="193"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="194"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="228"/>
       <c r="G19" s="3" t="s">
         <v>161</v>
       </c>
@@ -6350,113 +6351,113 @@
       <c r="I19" s="96">
         <v>9500</v>
       </c>
-      <c r="J19" s="191">
+      <c r="J19" s="224">
         <f>H19*I19</f>
         <v>9500</v>
       </c>
-      <c r="K19" s="191"/>
+      <c r="K19" s="224"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="95"/>
-      <c r="B20" s="188"/>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="222"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="223"/>
       <c r="G20" s="3"/>
       <c r="H20" s="94"/>
       <c r="I20" s="96"/>
-      <c r="J20" s="191"/>
-      <c r="K20" s="191"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="95"/>
-      <c r="B21" s="188"/>
-      <c r="C21" s="189"/>
-      <c r="D21" s="189"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="190"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="223"/>
       <c r="G21" s="3"/>
       <c r="H21" s="94"/>
       <c r="I21" s="96"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="191"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
       <c r="G22" s="3"/>
       <c r="H22" s="94"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="186"/>
-      <c r="K22" s="186"/>
+      <c r="J22" s="226"/>
+      <c r="K22" s="226"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="186" t="s">
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187">
+      <c r="H23" s="226"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="230">
         <f>SUM(J19:K22)</f>
         <v>9500</v>
       </c>
-      <c r="K23" s="186"/>
+      <c r="K23" s="226"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="186" t="s">
+      <c r="B24" s="229"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="226" t="s">
         <v>163</v>
       </c>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="187">
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="230">
         <f>J23*11%</f>
         <v>1045</v>
       </c>
-      <c r="K24" s="186"/>
+      <c r="K24" s="226"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="186" t="s">
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="H25" s="186"/>
-      <c r="I25" s="186"/>
-      <c r="J25" s="187">
+      <c r="H25" s="226"/>
+      <c r="I25" s="226"/>
+      <c r="J25" s="230">
         <f>J23+J24</f>
         <v>10545</v>
       </c>
-      <c r="K25" s="186"/>
+      <c r="K25" s="226"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
       <c r="G26" s="1"/>
       <c r="H26" s="97"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="185"/>
-      <c r="K26" s="185"/>
+      <c r="J26" s="229"/>
+      <c r="K26" s="229"/>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="76"/>
@@ -6467,8 +6468,8 @@
       <c r="G27" s="1"/>
       <c r="H27" s="97"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" s="76"/>
@@ -6479,8 +6480,8 @@
       <c r="G28" s="1"/>
       <c r="H28" s="97"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="229"/>
     </row>
     <row r="29" spans="1:11">
       <c r="B29" s="76"/>
@@ -6491,8 +6492,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="97"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="229"/>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="76"/>
@@ -6503,8 +6504,8 @@
       <c r="G30" s="1"/>
       <c r="H30" s="97"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="229"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
@@ -6515,40 +6516,20 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="185" t="s">
+      <c r="A32" s="229" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="185"/>
-      <c r="C32" s="185"/>
+      <c r="B32" s="229"/>
+      <c r="C32" s="229"/>
       <c r="D32" s="1"/>
-      <c r="G32" s="185" t="s">
+      <c r="G32" s="229" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="B26:F26"/>
@@ -6557,6 +6538,26 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6570,9 +6571,9 @@
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="26">
+    <row r="1" spans="1:11" ht="26.25">
       <c r="A1" s="82" t="s">
         <v>120</v>
       </c>
@@ -6608,7 +6609,7 @@
     <row r="5" spans="1:11">
       <c r="K5" s="105"/>
     </row>
-    <row r="6" spans="1:11" ht="23.5">
+    <row r="6" spans="1:11" ht="23.25">
       <c r="E6" s="83" t="s">
         <v>199</v>
       </c>
@@ -6692,10 +6693,10 @@
       <c r="D14" s="88"/>
       <c r="E14" s="86"/>
       <c r="G14" s="86"/>
-      <c r="H14" s="204" t="s">
+      <c r="H14" s="231" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="205"/>
+      <c r="I14" s="232"/>
       <c r="J14" s="87">
         <v>135287</v>
       </c>
@@ -6711,10 +6712,10 @@
       <c r="D15" s="92"/>
       <c r="E15" s="86"/>
       <c r="G15" s="86"/>
-      <c r="H15" s="204" t="s">
+      <c r="H15" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="205"/>
+      <c r="I15" s="232"/>
       <c r="J15" s="91" t="s">
         <v>195</v>
       </c>
@@ -6746,13 +6747,13 @@
       <c r="A19" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
+      <c r="C19" s="226"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
       <c r="G19" s="106" t="s">
         <v>155</v>
       </c>
@@ -6762,22 +6763,22 @@
       <c r="I19" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="186" t="s">
+      <c r="J19" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="186"/>
+      <c r="K19" s="226"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="206" t="s">
+      <c r="B20" s="233" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="206"/>
-      <c r="D20" s="206"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="206"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
       <c r="G20" s="108" t="s">
         <v>161</v>
       </c>
@@ -6787,124 +6788,124 @@
       <c r="I20" s="110">
         <v>1950</v>
       </c>
-      <c r="J20" s="200">
+      <c r="J20" s="234">
         <f>H20*I20</f>
         <v>1950</v>
       </c>
-      <c r="K20" s="200"/>
+      <c r="K20" s="234"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="95"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
       <c r="G21" s="111"/>
       <c r="H21" s="109"/>
       <c r="I21" s="112"/>
-      <c r="J21" s="200">
+      <c r="J21" s="234">
         <f>H21*I21</f>
         <v>0</v>
       </c>
-      <c r="K21" s="200"/>
+      <c r="K21" s="234"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="113"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="237"/>
+      <c r="F22" s="238"/>
       <c r="G22" s="111"/>
       <c r="H22" s="109"/>
       <c r="I22" s="112"/>
-      <c r="J22" s="200">
+      <c r="J22" s="234">
         <f>H22*I22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="200"/>
+      <c r="K22" s="234"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="113"/>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="237"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="238"/>
       <c r="G23" s="111"/>
       <c r="H23" s="109"/>
       <c r="I23" s="112"/>
-      <c r="J23" s="200">
+      <c r="J23" s="234">
         <f>H23*I23</f>
         <v>0</v>
       </c>
-      <c r="K23" s="200"/>
+      <c r="K23" s="234"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="186" t="s">
+      <c r="B24" s="229"/>
+      <c r="C24" s="229"/>
+      <c r="D24" s="229"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="229"/>
+      <c r="G24" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="195">
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="239">
         <f>SUM(J20:K23)</f>
         <v>1950</v>
       </c>
-      <c r="K24" s="196"/>
+      <c r="K24" s="240"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="B25" s="185"/>
-      <c r="C25" s="185"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="197" t="s">
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="198"/>
+      <c r="H25" s="242"/>
       <c r="I25" s="114">
         <v>0.15</v>
       </c>
-      <c r="J25" s="195">
+      <c r="J25" s="239">
         <f>J24*15%</f>
         <v>292.5</v>
       </c>
-      <c r="K25" s="196"/>
+      <c r="K25" s="240"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="186" t="s">
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="229"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="195">
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="239">
         <f>J24+J25</f>
         <v>2242.5</v>
       </c>
-      <c r="K26" s="196"/>
+      <c r="K26" s="240"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="B27" s="185"/>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="229"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
       <c r="G27" s="105"/>
       <c r="H27" s="97"/>
       <c r="I27" s="105"/>
-      <c r="J27" s="185"/>
-      <c r="K27" s="185"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="77"/>
@@ -6916,8 +6917,8 @@
       <c r="G28" s="105"/>
       <c r="H28" s="97"/>
       <c r="I28" s="105"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
+      <c r="J28" s="229"/>
+      <c r="K28" s="229"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="77"/>
@@ -6929,8 +6930,8 @@
       <c r="G29" s="105"/>
       <c r="H29" s="97"/>
       <c r="I29" s="105"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
+      <c r="J29" s="229"/>
+      <c r="K29" s="229"/>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="76"/>
@@ -6941,8 +6942,8 @@
       <c r="G30" s="105"/>
       <c r="H30" s="97"/>
       <c r="I30" s="105"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
+      <c r="J30" s="229"/>
+      <c r="K30" s="229"/>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="76"/>
@@ -6953,8 +6954,8 @@
       <c r="G31" s="105"/>
       <c r="H31" s="97"/>
       <c r="I31" s="105"/>
-      <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="229"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
@@ -6966,17 +6967,17 @@
       <c r="K32" s="105"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="229" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="185"/>
+      <c r="B33" s="229"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="105"/>
-      <c r="G33" s="185" t="s">
+      <c r="G33" s="229" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="185"/>
-      <c r="I33" s="185"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
       <c r="K33" s="105"/>
     </row>
     <row r="34" spans="1:11">
@@ -6998,33 +6999,15 @@
       <c r="K38" s="105"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="185" t="s">
+      <c r="A39" s="229" t="s">
         <v>198</v>
       </c>
-      <c r="B39" s="185"/>
-      <c r="C39" s="185"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
       <c r="K39" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:I26"/>
@@ -7037,6 +7020,24 @@
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="J20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7050,13 +7051,13 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="105"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="105"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7066,24 +7067,24 @@
       <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="244" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="245" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.5">
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="154"/>
       <c r="B4" s="155"/>
       <c r="C4" s="153"/>
@@ -7091,37 +7092,37 @@
       <c r="E4" s="78"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="246" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="210"/>
-      <c r="C5" s="211" t="s">
+      <c r="B5" s="246"/>
+      <c r="C5" s="247" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="246" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="210"/>
-      <c r="C6" s="211" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="247" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="248" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="248"/>
+      <c r="C7" s="249" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="213"/>
-      <c r="E7" s="213"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="152"/>
@@ -7129,7 +7130,7 @@
       <c r="D8" s="153"/>
       <c r="E8" s="78"/>
     </row>
-    <row r="9" spans="1:8" ht="29">
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="156" t="s">
         <v>245</v>
       </c>
@@ -7614,7 +7615,7 @@
       <c r="D44" s="168"/>
       <c r="E44" s="169"/>
     </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1">
       <c r="A45" s="160"/>
       <c r="B45" s="168"/>
       <c r="C45" s="168"/>
@@ -7624,25 +7625,25 @@
         <v>1703458.75</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" thickTop="1">
+    <row r="46" spans="1:5" ht="15.75" thickTop="1">
       <c r="A46" s="171"/>
       <c r="B46" s="172"/>
       <c r="C46" s="153"/>
       <c r="D46" s="173"/>
       <c r="E46" s="174"/>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
       <c r="A47" s="175"/>
       <c r="B47" s="172"/>
       <c r="C47" s="153"/>
       <c r="D47" s="173"/>
       <c r="E47" s="174"/>
     </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
-      <c r="A48" s="207" t="s">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A48" s="243" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="207"/>
+      <c r="B48" s="243"/>
       <c r="C48" s="153"/>
       <c r="D48" s="176">
         <f>COUNT(E10:E44)</f>
@@ -7657,11 +7658,11 @@
       <c r="D49" s="173"/>
       <c r="E49" s="174"/>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1">
-      <c r="A50" s="207" t="s">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A50" s="243" t="s">
         <v>290</v>
       </c>
-      <c r="B50" s="207"/>
+      <c r="B50" s="243"/>
       <c r="C50" s="153"/>
       <c r="D50" s="177"/>
       <c r="E50" s="174"/>
@@ -7673,11 +7674,11 @@
       <c r="D51" s="153"/>
       <c r="E51" s="179"/>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1">
-      <c r="A52" s="207" t="s">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A52" s="243" t="s">
         <v>291</v>
       </c>
-      <c r="B52" s="207"/>
+      <c r="B52" s="243"/>
       <c r="C52" s="153"/>
       <c r="D52" s="177"/>
       <c r="E52" s="174"/>
@@ -7716,32 +7717,32 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="250" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1">
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="115" t="s">
         <v>134</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>31383.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" s="118">
         <v>42989</v>
       </c>
@@ -7866,18 +7867,18 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="214" t="s">
+      <c r="A9" s="250" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-    </row>
-    <row r="10" spans="1:14" s="137" customFormat="1" ht="21">
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+    </row>
+    <row r="10" spans="1:14" s="137" customFormat="1" ht="22.5">
       <c r="A10" s="133" t="s">
         <v>134</v>
       </c>
@@ -8126,18 +8127,18 @@
       <c r="H19" s="151"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="214" t="s">
+      <c r="A20" s="250" t="s">
         <v>237</v>
       </c>
-      <c r="B20" s="214"/>
-      <c r="C20" s="214"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="214"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="B20" s="250"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="250"/>
+      <c r="F20" s="250"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="115" t="s">
         <v>134</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>31383.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="118">
         <v>42989</v>
       </c>
@@ -8262,14 +8263,14 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="214"/>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
+      <c r="A28" s="250"/>
+      <c r="B28" s="250"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="250"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="250"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8290,19 +8291,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -8353,19 +8354,19 @@
         <v>522150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="C8" s="80">
         <f>SUM(C5:C7)</f>
         <v>865843</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickTop="1"/>
+    <row r="9" spans="1:3" ht="15.75" thickTop="1"/>
     <row r="15" spans="1:3">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="251" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="251"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
@@ -8416,13 +8417,13 @@
         <v>146188</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" thickBot="1">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="C22" s="81">
         <f>SUM(C19:C21)</f>
         <v>1499626</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickTop="1"/>
+    <row r="23" spans="1:3" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -8440,56 +8441,56 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="5"/>
-    <col min="3" max="3" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="5"/>
-    <col min="8" max="8" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="5"/>
+    <col min="8" max="8" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="5"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5">
-      <c r="A1" s="216" t="s">
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="182" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
-      <c r="I1" s="216"/>
-      <c r="J1" s="216"/>
-      <c r="K1" s="216"/>
-      <c r="L1" s="216"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" thickBot="1">
-      <c r="A2" s="217"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
-      <c r="I2" s="217"/>
-      <c r="J2" s="217"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.5">
-      <c r="A3" s="218"/>
-      <c r="B3" s="219"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" s="184"/>
+      <c r="B3" s="185"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
@@ -8498,24 +8499,24 @@
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="220" t="s">
+      <c r="A4" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="272" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222" t="s">
+      <c r="C4" s="272"/>
+      <c r="D4" s="187" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="272" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="221"/>
+      <c r="F4" s="272"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
@@ -8524,91 +8525,91 @@
       <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="184" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="188" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="D5" s="225">
+      <c r="D5" s="190">
         <v>0.15</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="191" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="223">
+      <c r="F5" s="188">
         <v>0</v>
       </c>
       <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="218" t="s">
+      <c r="A6" s="184" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="223" t="s">
+      <c r="B6" s="188" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="227" t="s">
+      <c r="C6" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="225">
+      <c r="D6" s="190">
         <v>0.15</v>
       </c>
-      <c r="E6" s="228" t="s">
+      <c r="E6" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="223">
+      <c r="F6" s="188">
         <v>1</v>
       </c>
       <c r="G6" s="56"/>
-      <c r="L6" s="219"/>
+      <c r="L6" s="185"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="184" t="s">
         <v>304</v>
       </c>
-      <c r="B7" s="223" t="s">
+      <c r="B7" s="188" t="s">
         <v>305</v>
       </c>
-      <c r="C7" s="227" t="s">
+      <c r="C7" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="225">
+      <c r="D7" s="190">
         <v>0.15</v>
       </c>
-      <c r="E7" s="228" t="s">
+      <c r="E7" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="223" t="s">
+      <c r="F7" s="188" t="s">
         <v>306</v>
       </c>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="219"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="185"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="184" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="223" t="s">
+      <c r="B8" s="188" t="s">
         <v>308</v>
       </c>
-      <c r="C8" s="227" t="s">
+      <c r="C8" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="225">
+      <c r="D8" s="190">
         <v>0.15</v>
       </c>
-      <c r="E8" s="228" t="s">
+      <c r="E8" s="193" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="223">
+      <c r="F8" s="188">
         <v>2</v>
       </c>
       <c r="G8" s="56"/>
@@ -8617,22 +8618,22 @@
       <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="184" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="223" t="s">
+      <c r="B9" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="C9" s="224" t="s">
+      <c r="C9" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="225">
+      <c r="D9" s="190">
         <v>0.15</v>
       </c>
-      <c r="E9" s="226" t="s">
+      <c r="E9" s="191" t="s">
         <v>299</v>
       </c>
-      <c r="F9" s="223" t="s">
+      <c r="F9" s="188" t="s">
         <v>311</v>
       </c>
       <c r="G9" s="56"/>
@@ -8641,14 +8642,14 @@
       <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="218"/>
-      <c r="B10" s="218"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="230" t="s">
+      <c r="A10" s="184"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="258" t="s">
         <v>312</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="258"/>
       <c r="G10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -8658,16 +8659,16 @@
       <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="218" t="s">
+      <c r="A11" s="184" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="218"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="226" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="191" t="s">
         <v>299</v>
       </c>
-      <c r="F11" s="223">
+      <c r="F11" s="188">
         <v>3</v>
       </c>
       <c r="G11" s="56"/>
@@ -8679,20 +8680,20 @@
       <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="184" t="s">
         <v>313</v>
       </c>
-      <c r="B12" s="223" t="s">
+      <c r="B12" s="188" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="227" t="s">
+      <c r="C12" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D12" s="56"/>
-      <c r="E12" s="227" t="s">
+      <c r="E12" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F12" s="223" t="s">
+      <c r="F12" s="188" t="s">
         <v>315</v>
       </c>
       <c r="G12" s="56"/>
@@ -8700,16 +8701,16 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="219"/>
+      <c r="L12" s="185"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="184" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="223" t="s">
+      <c r="B13" s="188" t="s">
         <v>317</v>
       </c>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D13" s="56"/>
@@ -8720,16 +8721,16 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="219"/>
+      <c r="L13" s="185"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="218" t="s">
+      <c r="A14" s="184" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="188" t="s">
         <v>319</v>
       </c>
-      <c r="C14" s="227" t="s">
+      <c r="C14" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D14" s="56"/>
@@ -8740,22 +8741,22 @@
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
       <c r="K14" s="56"/>
-      <c r="L14" s="219"/>
+      <c r="L14" s="185"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="195" t="s">
         <v>320</v>
       </c>
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="C15" s="227" t="s">
+      <c r="C15" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="225" t="s">
+      <c r="D15" s="190" t="s">
         <v>322</v>
       </c>
-      <c r="E15" s="227" t="s">
+      <c r="E15" s="192" t="s">
         <v>302</v>
       </c>
       <c r="F15" s="56"/>
@@ -8764,22 +8765,22 @@
       <c r="I15" s="56"/>
       <c r="J15" s="56"/>
       <c r="K15" s="56"/>
-      <c r="L15" s="219"/>
+      <c r="L15" s="185"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="195" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="188" t="s">
         <v>324</v>
       </c>
-      <c r="C16" s="227" t="s">
+      <c r="C16" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="225" t="s">
+      <c r="D16" s="190" t="s">
         <v>325</v>
       </c>
-      <c r="E16" s="227" t="s">
+      <c r="E16" s="192" t="s">
         <v>302</v>
       </c>
       <c r="F16" s="56"/>
@@ -8788,12 +8789,12 @@
       <c r="I16" s="56"/>
       <c r="J16" s="56"/>
       <c r="K16" s="56"/>
-      <c r="L16" s="219"/>
+      <c r="L16" s="185"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="218"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="233"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="196"/>
+      <c r="C17" s="197"/>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
@@ -8805,9 +8806,9 @@
       <c r="L17" s="56"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="218"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="233"/>
+      <c r="A18" s="184"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="197"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
@@ -8819,9 +8820,9 @@
       <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="218"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="233"/>
+      <c r="A19" s="184"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="197"/>
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -8832,124 +8833,124 @@
       <c r="K19" s="56"/>
       <c r="L19" s="56"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
-      <c r="A20" s="234"/>
-      <c r="B20" s="235"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="236"/>
-      <c r="J20" s="236"/>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="198"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
       <c r="K20" s="56"/>
       <c r="L20" s="56"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="186" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="237" t="s">
+      <c r="B21" s="273" t="s">
         <v>294</v>
       </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="237" t="s">
+      <c r="C21" s="273"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="273" t="s">
         <v>327</v>
       </c>
-      <c r="F21" s="237"/>
+      <c r="F21" s="273"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="237" t="s">
+      <c r="H21" s="273" t="s">
         <v>328</v>
       </c>
-      <c r="I21" s="237"/>
+      <c r="I21" s="273"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56"/>
       <c r="L21" s="56"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="218" t="s">
+      <c r="A22" s="184" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="188" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D22" s="56"/>
-      <c r="E22" s="227" t="s">
+      <c r="E22" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F22" s="239">
+      <c r="F22" s="202">
         <v>4</v>
       </c>
       <c r="G22" s="56"/>
-      <c r="H22" s="224" t="s">
+      <c r="H22" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I22" s="239">
+      <c r="I22" s="202">
         <v>5</v>
       </c>
       <c r="J22" s="56"/>
       <c r="K22" s="56"/>
-      <c r="L22" s="219"/>
+      <c r="L22" s="185"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="218" t="s">
+      <c r="A23" s="184" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="223" t="s">
+      <c r="B23" s="188" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
-      <c r="H23" s="224" t="s">
+      <c r="H23" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I23" s="239">
+      <c r="I23" s="202">
         <v>6</v>
       </c>
       <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="218"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="230" t="s">
+      <c r="H24" s="258" t="s">
         <v>333</v>
       </c>
-      <c r="I24" s="230"/>
+      <c r="I24" s="258"/>
       <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="218"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="56"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
       <c r="G25" s="56"/>
-      <c r="H25" s="224" t="s">
+      <c r="H25" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I25" s="223">
+      <c r="I25" s="188">
         <v>7</v>
       </c>
       <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="218"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="56"/>
       <c r="C26" s="56" t="s">
         <v>294</v>
@@ -8965,20 +8966,20 @@
       <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="218" t="s">
+      <c r="A27" s="184" t="s">
         <v>335</v>
       </c>
-      <c r="B27" s="223" t="s">
+      <c r="B27" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="C27" s="227" t="s">
+      <c r="C27" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D27" s="56"/>
-      <c r="E27" s="227" t="s">
+      <c r="E27" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F27" s="239" t="s">
+      <c r="F27" s="202" t="s">
         <v>337</v>
       </c>
       <c r="G27" s="56"/>
@@ -8987,20 +8988,20 @@
       <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="218" t="s">
+      <c r="A28" s="184" t="s">
         <v>338</v>
       </c>
-      <c r="B28" s="223" t="s">
+      <c r="B28" s="188" t="s">
         <v>339</v>
       </c>
-      <c r="C28" s="227" t="s">
+      <c r="C28" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D28" s="56"/>
-      <c r="E28" s="227" t="s">
+      <c r="E28" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F28" s="239" t="s">
+      <c r="F28" s="202" t="s">
         <v>340</v>
       </c>
       <c r="G28" s="56"/>
@@ -9008,16 +9009,16 @@
       <c r="I28" s="56"/>
       <c r="J28" s="56"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="219"/>
+      <c r="L28" s="185"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="218" t="s">
+      <c r="A29" s="184" t="s">
         <v>341</v>
       </c>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="188" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D29" s="56"/>
@@ -9028,16 +9029,16 @@
       <c r="I29" s="56"/>
       <c r="J29" s="56"/>
       <c r="K29" s="56"/>
-      <c r="L29" s="219"/>
+      <c r="L29" s="185"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="218" t="s">
+      <c r="A30" s="184" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="188" t="s">
         <v>344</v>
       </c>
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D30" s="56"/>
@@ -9048,16 +9049,16 @@
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="219"/>
-    </row>
-    <row r="31" spans="1:12" ht="20">
-      <c r="A31" s="240" t="s">
+      <c r="L30" s="185"/>
+    </row>
+    <row r="31" spans="1:12" ht="19.5">
+      <c r="A31" s="203" t="s">
         <v>345</v>
       </c>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="224" t="s">
+      <c r="C31" s="189" t="s">
         <v>299</v>
       </c>
       <c r="D31" s="56"/>
@@ -9068,91 +9069,91 @@
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="219"/>
+      <c r="L31" s="185"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="201" t="s">
         <v>347</v>
       </c>
-      <c r="B32" s="238"/>
-      <c r="C32" s="238"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="238"/>
-      <c r="F32" s="238"/>
-      <c r="G32" s="238"/>
-      <c r="H32" s="227" t="s">
+      <c r="B32" s="201"/>
+      <c r="C32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I32" s="223">
+      <c r="I32" s="188">
         <v>8</v>
       </c>
       <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="241" t="s">
+      <c r="A33" s="204" t="s">
         <v>348</v>
       </c>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="227" t="s">
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I33" s="223" t="s">
+      <c r="I33" s="188" t="s">
         <v>349</v>
       </c>
       <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="238"/>
-      <c r="B34" s="242"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="238"/>
-      <c r="G34" s="238"/>
-      <c r="H34" s="243" t="s">
+      <c r="A34" s="201"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="257" t="s">
         <v>350</v>
       </c>
-      <c r="I34" s="243"/>
+      <c r="I34" s="257"/>
       <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="238" t="s">
+      <c r="A35" s="201" t="s">
         <v>351</v>
       </c>
-      <c r="B35" s="238"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="238"/>
-      <c r="G35" s="238"/>
-      <c r="H35" s="227" t="s">
+      <c r="B35" s="201"/>
+      <c r="C35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I35" s="223">
+      <c r="I35" s="188">
         <v>9</v>
       </c>
       <c r="J35" s="56"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
-      <c r="A36" s="234"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="236"/>
-      <c r="E36" s="236"/>
-      <c r="F36" s="236"/>
-      <c r="G36" s="236"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="236"/>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A36" s="198"/>
+      <c r="B36" s="199"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="218"/>
-      <c r="B37" s="219"/>
+      <c r="A37" s="184"/>
+      <c r="B37" s="185"/>
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
@@ -9166,37 +9167,37 @@
       <c r="A38" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B38" s="219"/>
+      <c r="B38" s="185"/>
       <c r="C38" s="56"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="56"/>
       <c r="G38" s="56"/>
-      <c r="H38" s="227" t="s">
+      <c r="H38" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I38" s="223">
+      <c r="I38" s="188">
         <v>10</v>
       </c>
       <c r="J38" s="56"/>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1">
-      <c r="A39" s="234"/>
-      <c r="B39" s="235"/>
-      <c r="C39" s="236"/>
-      <c r="D39" s="236"/>
-      <c r="E39" s="236"/>
-      <c r="F39" s="236"/>
-      <c r="G39" s="236"/>
-      <c r="H39" s="236"/>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A39" s="198"/>
+      <c r="B39" s="199"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
+      <c r="I39" s="200"/>
+      <c r="J39" s="200"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="B40" s="219"/>
+      <c r="B40" s="185"/>
       <c r="C40" s="56"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -9207,71 +9208,71 @@
       <c r="J40" s="56"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="244" t="s">
+      <c r="A41" s="268" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="244"/>
-      <c r="C41" s="245" t="s">
+      <c r="B41" s="268"/>
+      <c r="C41" s="269" t="s">
         <v>355</v>
       </c>
-      <c r="D41" s="246"/>
-      <c r="E41" s="227" t="s">
+      <c r="D41" s="270"/>
+      <c r="E41" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F41" s="247">
+      <c r="F41" s="206">
         <v>11</v>
       </c>
       <c r="J41" s="56"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="218"/>
-      <c r="B42" s="219"/>
+      <c r="A42" s="184"/>
+      <c r="B42" s="185"/>
       <c r="C42" s="56"/>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
       <c r="F42" s="56"/>
       <c r="G42" s="56"/>
-      <c r="H42" s="230" t="s">
+      <c r="H42" s="258" t="s">
         <v>356</v>
       </c>
-      <c r="I42" s="230"/>
+      <c r="I42" s="258"/>
       <c r="J42" s="56"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="218" t="s">
+      <c r="A43" s="184" t="s">
         <v>357</v>
       </c>
-      <c r="B43" s="248" t="s">
+      <c r="B43" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="C43" s="248"/>
-      <c r="D43" s="249"/>
-      <c r="E43" s="227" t="s">
+      <c r="C43" s="271"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="F43" s="247">
+      <c r="F43" s="206">
         <v>12</v>
       </c>
-      <c r="H43" s="227" t="s">
+      <c r="H43" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I43" s="250">
+      <c r="I43" s="208">
         <v>13</v>
       </c>
       <c r="J43" s="56"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="218"/>
-      <c r="B44" s="219"/>
+      <c r="A44" s="184"/>
+      <c r="B44" s="185"/>
       <c r="C44" s="56"/>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
       <c r="F44" s="56"/>
       <c r="G44" s="56"/>
-      <c r="H44" s="243" t="s">
+      <c r="H44" s="257" t="s">
         <v>359</v>
       </c>
-      <c r="I44" s="243"/>
+      <c r="I44" s="257"/>
       <c r="J44" s="56"/>
     </row>
     <row r="45" spans="1:10">
@@ -9284,184 +9285,184 @@
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="227" t="s">
+      <c r="H45" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I45" s="223">
+      <c r="I45" s="188">
         <v>14</v>
       </c>
       <c r="J45" s="56"/>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1">
-      <c r="A46" s="251"/>
-      <c r="B46" s="251"/>
-      <c r="C46" s="251"/>
-      <c r="D46" s="251"/>
-      <c r="E46" s="251"/>
-      <c r="F46" s="251"/>
-      <c r="G46" s="251"/>
-      <c r="H46" s="251"/>
-      <c r="I46" s="236"/>
-      <c r="J46" s="236"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A46" s="209"/>
+      <c r="B46" s="209"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
+      <c r="F46" s="209"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="218" t="s">
+      <c r="A47" s="184" t="s">
         <v>361</v>
       </c>
-      <c r="B47" s="219"/>
+      <c r="B47" s="185"/>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
       <c r="F47" s="56"/>
       <c r="G47" s="56"/>
-      <c r="H47" s="252" t="s">
+      <c r="H47" s="263" t="s">
         <v>362</v>
       </c>
-      <c r="I47" s="252"/>
+      <c r="I47" s="263"/>
       <c r="J47" s="56"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="218"/>
-      <c r="B48" s="230" t="s">
+      <c r="A48" s="184"/>
+      <c r="B48" s="258" t="s">
         <v>363</v>
       </c>
-      <c r="C48" s="230"/>
-      <c r="E48" s="238" t="s">
+      <c r="C48" s="258"/>
+      <c r="E48" s="201" t="s">
         <v>364</v>
       </c>
-      <c r="F48" s="238"/>
-      <c r="G48" s="238"/>
-      <c r="H48" s="224" t="s">
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I48" s="223">
+      <c r="I48" s="188">
         <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="238" t="s">
+      <c r="A49" s="201" t="s">
         <v>365</v>
       </c>
-      <c r="B49" s="239">
+      <c r="B49" s="202">
         <v>15</v>
       </c>
-      <c r="C49" s="253">
+      <c r="C49" s="210">
         <v>0</v>
       </c>
       <c r="E49" s="56"/>
-      <c r="F49" s="254" t="s">
+      <c r="F49" s="211" t="s">
         <v>366</v>
       </c>
-      <c r="G49" s="254"/>
+      <c r="G49" s="211"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="219"/>
+      <c r="I49" s="185"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="218"/>
-      <c r="B50" s="219"/>
+      <c r="A50" s="184"/>
+      <c r="B50" s="185"/>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
-      <c r="E50" s="255" t="s">
+      <c r="E50" s="212" t="s">
         <v>367</v>
       </c>
-      <c r="F50" s="255"/>
-      <c r="G50" s="255"/>
-      <c r="H50" s="227" t="s">
+      <c r="F50" s="212"/>
+      <c r="G50" s="212"/>
+      <c r="H50" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I50" s="223" t="s">
+      <c r="I50" s="188" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="256" t="s">
+      <c r="A51" s="213" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="223" t="s">
+      <c r="B51" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="C51" s="227" t="s">
+      <c r="C51" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="E51" s="255" t="s">
+      <c r="E51" s="212" t="s">
         <v>371</v>
       </c>
-      <c r="F51" s="255"/>
-      <c r="G51" s="255"/>
-      <c r="H51" s="224" t="s">
+      <c r="F51" s="212"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I51" s="223" t="s">
+      <c r="I51" s="188" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="24" customHeight="1">
-      <c r="A52" s="257" t="s">
+      <c r="A52" s="214" t="s">
         <v>373</v>
       </c>
-      <c r="B52" s="223" t="s">
+      <c r="B52" s="188" t="s">
         <v>374</v>
       </c>
-      <c r="C52" s="227" t="s">
+      <c r="C52" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="E52" s="258" t="s">
+      <c r="E52" s="264" t="s">
         <v>375</v>
       </c>
-      <c r="F52" s="258"/>
-      <c r="G52" s="259"/>
-      <c r="H52" s="227" t="s">
+      <c r="F52" s="264"/>
+      <c r="G52" s="265"/>
+      <c r="H52" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I52" s="223" t="s">
+      <c r="I52" s="188" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="28.5">
-      <c r="A53" s="257" t="s">
+    <row r="53" spans="1:13" ht="27">
+      <c r="A53" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="B53" s="223" t="s">
+      <c r="B53" s="188" t="s">
         <v>378</v>
       </c>
-      <c r="C53" s="227" t="s">
+      <c r="C53" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="E53" s="258" t="s">
+      <c r="E53" s="264" t="s">
         <v>379</v>
       </c>
-      <c r="F53" s="258"/>
-      <c r="G53" s="259"/>
-      <c r="H53" s="227" t="s">
+      <c r="F53" s="264"/>
+      <c r="G53" s="265"/>
+      <c r="H53" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I53" s="223" t="s">
+      <c r="I53" s="188" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="19">
-      <c r="A54" s="257" t="s">
+    <row r="54" spans="1:13" ht="18">
+      <c r="A54" s="214" t="s">
         <v>381</v>
       </c>
-      <c r="B54" s="223" t="s">
+      <c r="B54" s="188" t="s">
         <v>382</v>
       </c>
-      <c r="C54" s="227" t="s">
+      <c r="C54" s="192" t="s">
         <v>302</v>
       </c>
       <c r="F54" s="56"/>
-      <c r="G54" s="260"/>
-      <c r="H54" s="261"/>
-      <c r="I54" s="261"/>
-      <c r="J54" s="261"/>
-      <c r="K54" s="233"/>
+      <c r="G54" s="266"/>
+      <c r="H54" s="267"/>
+      <c r="I54" s="267"/>
+      <c r="J54" s="267"/>
+      <c r="K54" s="197"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="218"/>
-      <c r="B55" s="262" t="s">
+      <c r="A55" s="184"/>
+      <c r="B55" s="259" t="s">
         <v>383</v>
       </c>
-      <c r="C55" s="262"/>
+      <c r="C55" s="259"/>
       <c r="D55" s="56"/>
       <c r="E55" s="56"/>
       <c r="F55" s="56"/>
@@ -9470,16 +9471,16 @@
       <c r="I55" s="56"/>
       <c r="J55" s="56"/>
       <c r="K55" s="56"/>
-      <c r="L55" s="219"/>
+      <c r="L55" s="185"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="218" t="s">
+      <c r="A56" s="184" t="s">
         <v>384</v>
       </c>
-      <c r="B56" s="223" t="s">
+      <c r="B56" s="188" t="s">
         <v>385</v>
       </c>
-      <c r="C56" s="227" t="s">
+      <c r="C56" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D56" s="56"/>
@@ -9490,11 +9491,11 @@
       <c r="I56" s="56"/>
       <c r="J56" s="56"/>
       <c r="K56" s="56"/>
-      <c r="L56" s="219"/>
+      <c r="L56" s="185"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="218"/>
-      <c r="B57" s="219"/>
+      <c r="A57" s="184"/>
+      <c r="B57" s="185"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
@@ -9504,252 +9505,252 @@
       <c r="I57" s="56"/>
       <c r="J57" s="56"/>
       <c r="K57" s="56"/>
-      <c r="L57" s="219"/>
+      <c r="L57" s="185"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="218" t="s">
+      <c r="A58" s="184" t="s">
         <v>386</v>
       </c>
-      <c r="B58" s="223" t="s">
+      <c r="B58" s="188" t="s">
         <v>387</v>
       </c>
-      <c r="C58" s="227" t="s">
+      <c r="C58" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D58" s="56"/>
-      <c r="E58" s="263" t="s">
+      <c r="E58" s="260" t="s">
         <v>388</v>
       </c>
-      <c r="F58" s="263"/>
-      <c r="G58" s="264"/>
-      <c r="H58" s="227" t="s">
+      <c r="F58" s="260"/>
+      <c r="G58" s="261"/>
+      <c r="H58" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I58" s="223" t="s">
+      <c r="I58" s="188" t="s">
         <v>389</v>
       </c>
       <c r="J58" s="56"/>
       <c r="K58" s="56"/>
-      <c r="L58" s="219"/>
+      <c r="L58" s="185"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="218" t="s">
+      <c r="A59" s="184" t="s">
         <v>390</v>
       </c>
-      <c r="B59" s="223" t="s">
+      <c r="B59" s="188" t="s">
         <v>391</v>
       </c>
-      <c r="C59" s="227" t="s">
+      <c r="C59" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D59" s="56"/>
-      <c r="E59" s="265" t="s">
+      <c r="E59" s="262" t="s">
         <v>392</v>
       </c>
-      <c r="F59" s="263"/>
-      <c r="G59" s="264"/>
-      <c r="H59" s="227" t="s">
+      <c r="F59" s="260"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I59" s="223" t="s">
+      <c r="I59" s="188" t="s">
         <v>393</v>
       </c>
       <c r="J59" s="56"/>
       <c r="K59" s="56"/>
-      <c r="L59" s="219"/>
+      <c r="L59" s="185"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="218" t="s">
+      <c r="A60" s="184" t="s">
         <v>394</v>
       </c>
-      <c r="B60" s="223" t="s">
+      <c r="B60" s="188" t="s">
         <v>395</v>
       </c>
-      <c r="C60" s="227" t="s">
+      <c r="C60" s="192" t="s">
         <v>302</v>
       </c>
       <c r="D60" s="56"/>
-      <c r="E60" s="265" t="s">
+      <c r="E60" s="262" t="s">
         <v>396</v>
       </c>
-      <c r="F60" s="263"/>
-      <c r="G60" s="264"/>
-      <c r="H60" s="227" t="s">
+      <c r="F60" s="260"/>
+      <c r="G60" s="261"/>
+      <c r="H60" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I60" s="223" t="s">
+      <c r="I60" s="188" t="s">
         <v>397</v>
       </c>
       <c r="J60" s="56"/>
       <c r="K60" s="56"/>
-      <c r="L60" s="219"/>
+      <c r="L60" s="185"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="218"/>
-      <c r="B61" s="219"/>
+      <c r="A61" s="184"/>
+      <c r="B61" s="185"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
-      <c r="E61" s="266" t="s">
+      <c r="E61" s="254" t="s">
         <v>398</v>
       </c>
-      <c r="F61" s="266"/>
-      <c r="G61" s="267"/>
-      <c r="H61" s="227" t="s">
+      <c r="F61" s="254"/>
+      <c r="G61" s="255"/>
+      <c r="H61" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I61" s="223" t="s">
+      <c r="I61" s="188" t="s">
         <v>399</v>
       </c>
       <c r="J61" s="56"/>
       <c r="K61" s="56"/>
-      <c r="L61" s="219"/>
+      <c r="L61" s="185"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="218"/>
-      <c r="B62" s="219"/>
+      <c r="A62" s="184"/>
+      <c r="B62" s="185"/>
       <c r="C62" s="56"/>
       <c r="D62" s="56"/>
-      <c r="E62" s="268" t="s">
+      <c r="E62" s="253" t="s">
         <v>400</v>
       </c>
-      <c r="F62" s="266"/>
-      <c r="G62" s="267"/>
-      <c r="H62" s="227" t="s">
+      <c r="F62" s="254"/>
+      <c r="G62" s="255"/>
+      <c r="H62" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I62" s="223" t="s">
+      <c r="I62" s="188" t="s">
         <v>401</v>
       </c>
       <c r="J62" s="56"/>
       <c r="K62" s="56"/>
-      <c r="L62" s="219"/>
+      <c r="L62" s="185"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="218"/>
-      <c r="B63" s="219"/>
+      <c r="A63" s="184"/>
+      <c r="B63" s="185"/>
       <c r="C63" s="56"/>
       <c r="D63" s="56"/>
-      <c r="E63" s="268" t="s">
+      <c r="E63" s="253" t="s">
         <v>402</v>
       </c>
-      <c r="F63" s="266"/>
-      <c r="G63" s="267"/>
-      <c r="H63" s="227" t="s">
+      <c r="F63" s="254"/>
+      <c r="G63" s="255"/>
+      <c r="H63" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I63" s="223" t="s">
+      <c r="I63" s="188" t="s">
         <v>403</v>
       </c>
       <c r="J63" s="56"/>
       <c r="K63" s="56"/>
-      <c r="L63" s="219"/>
+      <c r="L63" s="185"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="218"/>
-      <c r="B64" s="219"/>
+      <c r="A64" s="184"/>
+      <c r="B64" s="185"/>
       <c r="C64" s="56"/>
       <c r="D64" s="56"/>
-      <c r="E64" s="269"/>
-      <c r="F64" s="241"/>
-      <c r="G64" s="241"/>
-      <c r="H64" s="270" t="s">
+      <c r="E64" s="215"/>
+      <c r="F64" s="204"/>
+      <c r="G64" s="204"/>
+      <c r="H64" s="256" t="s">
         <v>404</v>
       </c>
-      <c r="I64" s="270"/>
-      <c r="J64" s="241"/>
-      <c r="K64" s="241"/>
-      <c r="L64" s="241"/>
-      <c r="M64" s="241"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="204"/>
+      <c r="K64" s="204"/>
+      <c r="L64" s="204"/>
+      <c r="M64" s="204"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="218"/>
-      <c r="B65" s="219"/>
+      <c r="A65" s="184"/>
+      <c r="B65" s="185"/>
       <c r="C65" s="56"/>
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
       <c r="F65" s="56"/>
       <c r="G65" s="56"/>
-      <c r="H65" s="227" t="s">
+      <c r="H65" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I65" s="223" t="s">
+      <c r="I65" s="188" t="s">
         <v>405</v>
       </c>
       <c r="J65" s="56"/>
       <c r="K65" s="56"/>
-      <c r="L65" s="219"/>
+      <c r="L65" s="185"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="218"/>
-      <c r="B66" s="219"/>
+      <c r="A66" s="184"/>
+      <c r="B66" s="185"/>
       <c r="C66" s="56"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
       <c r="F66" s="56"/>
       <c r="G66" s="56"/>
-      <c r="H66" s="243" t="s">
+      <c r="H66" s="257" t="s">
         <v>406</v>
       </c>
-      <c r="I66" s="243"/>
+      <c r="I66" s="257"/>
       <c r="J66" s="56"/>
       <c r="K66" s="56"/>
       <c r="L66" s="56"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="218"/>
-      <c r="B67" s="219"/>
+      <c r="A67" s="184"/>
+      <c r="B67" s="185"/>
       <c r="C67" s="56"/>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="56"/>
       <c r="G67" s="56"/>
-      <c r="H67" s="227" t="s">
+      <c r="H67" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I67" s="223" t="s">
+      <c r="I67" s="188" t="s">
         <v>407</v>
       </c>
       <c r="J67" s="56"/>
       <c r="K67" s="56"/>
-      <c r="L67" s="219"/>
+      <c r="L67" s="185"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="218"/>
-      <c r="B68" s="219"/>
+      <c r="A68" s="184"/>
+      <c r="B68" s="185"/>
       <c r="C68" s="56"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
       <c r="G68" s="56"/>
-      <c r="H68" s="243" t="s">
+      <c r="H68" s="257" t="s">
         <v>408</v>
       </c>
-      <c r="I68" s="243"/>
+      <c r="I68" s="257"/>
       <c r="J68" s="56"/>
       <c r="K68" s="56"/>
-      <c r="L68" s="219"/>
+      <c r="L68" s="185"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="218"/>
-      <c r="B69" s="219"/>
+      <c r="A69" s="184"/>
+      <c r="B69" s="185"/>
       <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
       <c r="G69" s="56"/>
-      <c r="H69" s="227" t="s">
+      <c r="H69" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I69" s="223" t="s">
+      <c r="I69" s="188" t="s">
         <v>409</v>
       </c>
       <c r="J69" s="56"/>
       <c r="K69" s="56"/>
-      <c r="L69" s="219"/>
+      <c r="L69" s="185"/>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="218"/>
-      <c r="B70" s="219"/>
+      <c r="A70" s="184"/>
+      <c r="B70" s="185"/>
       <c r="C70" s="56"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
@@ -9759,51 +9760,51 @@
       <c r="I70" s="56"/>
       <c r="J70" s="56"/>
       <c r="K70" s="56"/>
-      <c r="L70" s="219"/>
+      <c r="L70" s="185"/>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="238" t="s">
+      <c r="A71" s="201" t="s">
         <v>410</v>
       </c>
-      <c r="B71" s="218"/>
-      <c r="C71" s="218"/>
-      <c r="D71" s="218"/>
-      <c r="E71" s="218"/>
-      <c r="F71" s="218"/>
-      <c r="G71" s="271"/>
-      <c r="H71" s="227" t="s">
+      <c r="B71" s="184"/>
+      <c r="C71" s="184"/>
+      <c r="D71" s="184"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="216"/>
+      <c r="H71" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I71" s="239" t="s">
+      <c r="I71" s="202" t="s">
         <v>411</v>
       </c>
       <c r="J71" s="56"/>
       <c r="K71" s="56"/>
-      <c r="L71" s="219"/>
+      <c r="L71" s="185"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="238" t="s">
+      <c r="A72" s="201" t="s">
         <v>412</v>
       </c>
-      <c r="B72" s="218"/>
-      <c r="C72" s="218"/>
-      <c r="D72" s="218"/>
-      <c r="E72" s="218"/>
-      <c r="F72" s="218"/>
-      <c r="G72" s="271"/>
-      <c r="H72" s="227" t="s">
+      <c r="B72" s="184"/>
+      <c r="C72" s="184"/>
+      <c r="D72" s="184"/>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+      <c r="G72" s="216"/>
+      <c r="H72" s="192" t="s">
         <v>302</v>
       </c>
-      <c r="I72" s="239" t="s">
+      <c r="I72" s="202" t="s">
         <v>413</v>
       </c>
       <c r="J72" s="56"/>
       <c r="K72" s="56"/>
-      <c r="L72" s="219"/>
+      <c r="L72" s="185"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="218"/>
-      <c r="B73" s="219"/>
+      <c r="A73" s="184"/>
+      <c r="B73" s="185"/>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -9813,60 +9814,60 @@
       <c r="I73" s="56"/>
       <c r="J73" s="56"/>
       <c r="K73" s="56"/>
-      <c r="L73" s="219"/>
+      <c r="L73" s="185"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="218"/>
-      <c r="B74" s="219"/>
+      <c r="A74" s="184"/>
+      <c r="B74" s="185"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
       <c r="E74" s="56"/>
       <c r="F74" s="56"/>
       <c r="G74" s="56"/>
-      <c r="H74" s="230" t="s">
+      <c r="H74" s="258" t="s">
         <v>414</v>
       </c>
-      <c r="I74" s="230"/>
+      <c r="I74" s="258"/>
       <c r="J74" s="56"/>
       <c r="K74" s="56"/>
-      <c r="L74" s="219"/>
+      <c r="L74" s="185"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="218"/>
-      <c r="B75" s="218"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218" t="s">
+      <c r="A75" s="184"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="184" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="218"/>
-      <c r="G75" s="271"/>
-      <c r="H75" s="227"/>
-      <c r="I75" s="239">
+      <c r="F75" s="184"/>
+      <c r="G75" s="216"/>
+      <c r="H75" s="192"/>
+      <c r="I75" s="202">
         <v>17</v>
       </c>
       <c r="J75" s="56"/>
       <c r="K75" s="56"/>
-      <c r="L75" s="219"/>
+      <c r="L75" s="185"/>
     </row>
     <row r="76" spans="1:12">
       <c r="J76" s="56"/>
       <c r="K76" s="56"/>
-      <c r="L76" s="219"/>
+      <c r="L76" s="185"/>
     </row>
     <row r="77" spans="1:12">
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
       <c r="G77" s="56"/>
-      <c r="H77" s="272" t="s">
+      <c r="H77" s="217" t="s">
         <v>416</v>
       </c>
-      <c r="I77" s="272"/>
+      <c r="I77" s="217"/>
       <c r="K77" s="56"/>
-      <c r="L77" s="219"/>
+      <c r="L77" s="185"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="218"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
       <c r="D78" s="56"/>
@@ -9875,21 +9876,21 @@
       </c>
       <c r="F78" s="56"/>
       <c r="G78" s="56"/>
-      <c r="H78" s="224" t="s">
+      <c r="H78" s="189" t="s">
         <v>299</v>
       </c>
-      <c r="I78" s="223">
+      <c r="I78" s="188">
         <v>18</v>
       </c>
       <c r="K78" s="56"/>
-      <c r="L78" s="219"/>
+      <c r="L78" s="185"/>
     </row>
     <row r="79" spans="1:12">
       <c r="D79" s="56"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
       <c r="K79" s="56"/>
-      <c r="L79" s="219"/>
+      <c r="L79" s="185"/>
     </row>
     <row r="80" spans="1:12">
       <c r="D80" s="56"/>
@@ -9905,8 +9906,8 @@
       <c r="A82" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="B82" s="273"/>
-      <c r="C82" s="273"/>
+      <c r="B82" s="252"/>
+      <c r="C82" s="252"/>
       <c r="D82" s="56"/>
       <c r="E82" s="56"/>
       <c r="F82" s="56"/>
@@ -9915,8 +9916,8 @@
       <c r="A83" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="273"/>
+      <c r="B83" s="252"/>
+      <c r="C83" s="252"/>
       <c r="D83" s="56"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
@@ -9948,6 +9949,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
     <mergeCell ref="B83:C83"/>
     <mergeCell ref="E63:G63"/>
     <mergeCell ref="H64:I64"/>
@@ -9955,30 +9980,6 @@
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="H74:I74"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
